--- a/BusinessLogicConstants.xlsx
+++ b/BusinessLogicConstants.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31410731-991E-4D2E-BB06-75D5A438F1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -42,12 +43,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -353,25 +354,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -391,7 +392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.5</v>
       </c>
